--- a/DecorLibaryDesigner/Testdata/DT_03CreateRoomItem.xlsx
+++ b/DecorLibaryDesigner/Testdata/DT_03CreateRoomItem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NuwanM\eclipseWorkPlace\DecorLibaryDesigner\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NuwanMaduranga\git\DecoLibSelenium\DecorLibaryDesigner\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C688B77-058B-4544-B495-ABBB875632D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC032FD-EB67-4DC8-97AA-8E5896A6C512}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335FE1CF-A67D-4350-AFDA-5632BEE56DD2}"/>
   </bookViews>
@@ -93,10 +93,10 @@
     <t>Carefully need to transport</t>
   </si>
   <si>
-    <t>PCA1012</t>
-  </si>
-  <si>
-    <t>ChairAuto1</t>
+    <t>PCA15552</t>
+  </si>
+  <si>
+    <t>ProductTest04</t>
   </si>
 </sst>
 </file>
@@ -462,13 +462,13 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -541,13 +541,13 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>6300.78</v>
+        <v>670.78</v>
       </c>
       <c r="H2">
         <v>24</v>
       </c>
       <c r="I2">
-        <v>2300</v>
+        <v>130</v>
       </c>
       <c r="J2">
         <v>1</v>

--- a/DecorLibaryDesigner/Testdata/DT_03CreateRoomItem.xlsx
+++ b/DecorLibaryDesigner/Testdata/DT_03CreateRoomItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NuwanMaduranga\git\DecoLibSelenium\DecorLibaryDesigner\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC032FD-EB67-4DC8-97AA-8E5896A6C512}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07CE86A-D326-453C-AFA0-F04E083C1223}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335FE1CF-A67D-4350-AFDA-5632BEE56DD2}"/>
   </bookViews>
@@ -93,10 +93,10 @@
     <t>Carefully need to transport</t>
   </si>
   <si>
-    <t>PCA15552</t>
-  </si>
-  <si>
-    <t>ProductTest04</t>
+    <t>PCA155521678</t>
+  </si>
+  <si>
+    <t>ProductTestAuto1</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>670.78</v>
+        <v>210.78</v>
       </c>
       <c r="H2">
         <v>24</v>

--- a/DecorLibaryDesigner/Testdata/DT_03CreateRoomItem.xlsx
+++ b/DecorLibaryDesigner/Testdata/DT_03CreateRoomItem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NuwanMaduranga\git\DecoLibSelenium\DecorLibaryDesigner\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07CE86A-D326-453C-AFA0-F04E083C1223}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84B1C07-B94F-45A4-8830-EBDFC627265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335FE1CF-A67D-4350-AFDA-5632BEE56DD2}"/>
   </bookViews>
@@ -93,10 +93,10 @@
     <t>Carefully need to transport</t>
   </si>
   <si>
-    <t>PCA155521678</t>
-  </si>
-  <si>
     <t>ProductTestAuto1</t>
+  </si>
+  <si>
+    <t>PCA155</t>
   </si>
 </sst>
 </file>
@@ -462,13 +462,13 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -523,10 +523,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
